--- a/SSQM_Testcase_description_20170321.xlsx
+++ b/SSQM_Testcase_description_20170321.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17400" windowHeight="12060" tabRatio="658" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="6600" tabRatio="658" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1-Resolutions" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="11-Usage" sheetId="11" r:id="rId11"/>
     <sheet name="12-BugFix" sheetId="12" r:id="rId12"/>
     <sheet name="13-Spainish" sheetId="13" r:id="rId13"/>
+    <sheet name="15-combo" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="501">
   <si>
     <t>Description</t>
   </si>
@@ -1533,6 +1534,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1582,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1654,6 +1659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4118,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4230,6 +4238,68 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>15.1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6410,7 +6480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
